--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -434,7 +434,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,7 +448,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="2">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -462,10 +462,10 @@
         <v>45993</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +476,10 @@
         <v>45993</v>
       </c>
       <c r="C5" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -434,7 +434,7 @@
         <v>45993</v>
       </c>
       <c r="C2" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,7 +448,7 @@
         <v>45993</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -462,10 +462,10 @@
         <v>45993</v>
       </c>
       <c r="C4" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +476,10 @@
         <v>45993</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +490,10 @@
         <v>45993</v>
       </c>
       <c r="C6" s="2">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,7 +504,7 @@
         <v>45993</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Resort</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Passes</t>
   </si>
   <si>
     <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -445,13 +445,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C3" s="2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -459,13 +459,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C5" s="2">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -487,27 +487,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C6" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45993</v>
-      </c>
-      <c r="C7" s="2">
-        <v>183</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,16 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl</t>
+  </si>
+  <si>
+    <t>Snowbowl Passes</t>
+  </si>
+  <si>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,7 +437,7 @@
         <v>46000</v>
       </c>
       <c r="C2" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +451,10 @@
         <v>46000</v>
       </c>
       <c r="C3" s="2">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +465,10 @@
         <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +479,10 @@
         <v>46000</v>
       </c>
       <c r="C5" s="2">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +493,66 @@
         <v>46000</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>570</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>918</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
-  </si>
-  <si>
-    <t>Snowbowl Passes</t>
-  </si>
-  <si>
-    <t>Snowbowl Comp Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>Purgatory Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Passes</t>
+  </si>
+  <si>
+    <t>Purgatory Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +434,7 @@
         <v>46000</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -454,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -465,10 +462,10 @@
         <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,10 +476,10 @@
         <v>46000</v>
       </c>
       <c r="C5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,66 +490,10 @@
         <v>46000</v>
       </c>
       <c r="C6" s="2">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>570</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>918</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Resort</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Passes</t>
+  </si>
+  <si>
     <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C2" s="2">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -445,10 +445,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -459,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C4" s="2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C5" s="2">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -487,13 +487,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C6" s="2">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,16 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl</t>
+  </si>
+  <si>
+    <t>Snowbowl Passes</t>
+  </si>
+  <si>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Uplift Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,7 +437,7 @@
         <v>46001</v>
       </c>
       <c r="C2" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +451,10 @@
         <v>46001</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,7 +465,7 @@
         <v>46001</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,10 +479,10 @@
         <v>46001</v>
       </c>
       <c r="C5" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +493,10 @@
         <v>46001</v>
       </c>
       <c r="C6" s="2">
-        <v>398</v>
+        <v>725</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +507,66 @@
         <v>46001</v>
       </c>
       <c r="C7" s="2">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,16 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl</t>
+  </si>
+  <si>
+    <t>Snowbowl Uplift Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Passes</t>
+  </si>
+  <si>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,7 +437,7 @@
         <v>46002</v>
       </c>
       <c r="C2" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +451,10 @@
         <v>46002</v>
       </c>
       <c r="C3" s="2">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,7 +465,7 @@
         <v>46002</v>
       </c>
       <c r="C4" s="2">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,7 +479,7 @@
         <v>46002</v>
       </c>
       <c r="C5" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -490,10 +493,66 @@
         <v>46002</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1083</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>741</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
-  </si>
-  <si>
-    <t>Snowbowl Uplift Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Passes</t>
-  </si>
-  <si>
-    <t>Snowbowl Comp Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>Purgatory Passes</t>
+  </si>
+  <si>
+    <t>Purgatory Coaster</t>
+  </si>
+  <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C2" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>925</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C5" s="2">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C7" s="2">
-        <v>1083</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C8" s="2">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C9" s="2">
-        <v>741</v>
+        <v>332</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,27 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C10" s="2">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Visits.xlsx
+++ b/reports/For The Day (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Coaster</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl</t>
+  </si>
+  <si>
+    <t>Snowbowl Passes</t>
+  </si>
+  <si>
+    <t>Snowbowl Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +437,7 @@
         <v>46005</v>
       </c>
       <c r="C2" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>46005</v>
       </c>
       <c r="C3" s="2">
-        <v>925</v>
+        <v>1548</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -465,7 +465,7 @@
         <v>46005</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -479,7 +479,7 @@
         <v>46005</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -493,7 +493,7 @@
         <v>46005</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>993</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -507,10 +507,10 @@
         <v>46005</v>
       </c>
       <c r="C7" s="2">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,10 +521,10 @@
         <v>46005</v>
       </c>
       <c r="C8" s="2">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,10 +535,10 @@
         <v>46005</v>
       </c>
       <c r="C9" s="2">
-        <v>332</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,7 +549,7 @@
         <v>46005</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -563,10 +563,24 @@
         <v>46005</v>
       </c>
       <c r="C11" s="2">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C12" s="2">
+        <v>339</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
